--- a/Documentatie/Task distribution.xlsx
+++ b/Documentatie/Task distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\SEM2\ProiectDB\A3S2Project\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E07A47DD-EA77-412D-97AD-91A3D597863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B24D1D-47E9-413A-910D-939FD322293D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{882F13E4-EDE2-4721-90E6-3B86B73A57BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Nume Proiect</t>
   </si>
@@ -72,24 +72,12 @@
     <t>Car list</t>
   </si>
   <si>
-    <t>Vroom Auto Rentls</t>
-  </si>
-  <si>
     <t>The actual list</t>
   </si>
   <si>
-    <t>Diferential oprions for each user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login and </t>
-  </si>
-  <si>
     <t>View and edit data</t>
   </si>
   <si>
-    <t>5h</t>
-  </si>
-  <si>
     <t>2h</t>
   </si>
   <si>
@@ -108,10 +96,25 @@
     <t xml:space="preserve">The actual list </t>
   </si>
   <si>
-    <t>Updateing the history list</t>
-  </si>
-  <si>
     <t>Sending data to history</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>Sing in and sing up</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Vroom Auto Rentals</t>
+  </si>
+  <si>
+    <t>Differential options for each user</t>
+  </si>
+  <si>
+    <t>Updating the history list</t>
   </si>
 </sst>
 </file>
@@ -171,9 +174,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,6 +186,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,24 +514,24 @@
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>13</v>
+      <c r="B1" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="5"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -540,131 +543,131 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentatie/Task distribution.xlsx
+++ b/Documentatie/Task distribution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\SEM2\ProiectDB\A3S2Project\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B24D1D-47E9-413A-910D-939FD322293D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E07A47DD-EA77-412D-97AD-91A3D597863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{882F13E4-EDE2-4721-90E6-3B86B73A57BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Nume Proiect</t>
   </si>
@@ -72,12 +72,24 @@
     <t>Car list</t>
   </si>
   <si>
+    <t>Vroom Auto Rentls</t>
+  </si>
+  <si>
     <t>The actual list</t>
   </si>
   <si>
+    <t>Diferential oprions for each user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login and </t>
+  </si>
+  <si>
     <t>View and edit data</t>
   </si>
   <si>
+    <t>5h</t>
+  </si>
+  <si>
     <t>2h</t>
   </si>
   <si>
@@ -96,25 +108,10 @@
     <t xml:space="preserve">The actual list </t>
   </si>
   <si>
+    <t>Updateing the history list</t>
+  </si>
+  <si>
     <t>Sending data to history</t>
-  </si>
-  <si>
-    <t>7h</t>
-  </si>
-  <si>
-    <t>Sing in and sing up</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>Vroom Auto Rentals</t>
-  </si>
-  <si>
-    <t>Differential options for each user</t>
-  </si>
-  <si>
-    <t>Updating the history list</t>
   </si>
 </sst>
 </file>
@@ -174,6 +171,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -186,9 +186,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,7 +503,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,24 +511,24 @@
     <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>25</v>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="4"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -543,131 +540,131 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
